--- a/latest_data.xlsx
+++ b/latest_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmertens/Desktop/thesis/git_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397A267-F59F-AE4E-B63F-B105B9F6FA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56453CA-3890-DD46-A740-C27938417FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1751,8 +1751,8 @@
   <dimension ref="A1:Q201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L188" sqref="L188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5854,7 +5854,7 @@
         <v>116</v>
       </c>
       <c r="L82" t="s">
-        <v>422</v>
+        <v>111</v>
       </c>
       <c r="M82" t="s">
         <v>122</v>
@@ -9181,7 +9181,7 @@
         <v>116</v>
       </c>
       <c r="L148" t="s">
-        <v>421</v>
+        <v>113</v>
       </c>
       <c r="M148" t="s">
         <v>122</v>

--- a/latest_data.xlsx
+++ b/latest_data.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmertens/Desktop/thesis/git_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56453CA-3890-DD46-A740-C27938417FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DCB412-E4AF-E641-B4EF-ED527E3CF3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34340" yWindow="3240" windowWidth="28800" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="easy" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">easy!$A$1:$Q$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$Q$201</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -200,9 +200,6 @@
     <t>initial_contour</t>
   </si>
   <si>
-    <t>[[28, 206, 144, 256]]</t>
-  </si>
-  <si>
     <t>[[151, 420, 155, 482]]</t>
   </si>
   <si>
@@ -1371,6 +1368,9 @@
   </si>
   <si>
     <t>sigma</t>
+  </si>
+  <si>
+    <t>imag, p</t>
   </si>
 </sst>
 </file>
@@ -1747,12 +1747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L188" sqref="L188"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1771,46 +1770,46 @@
         <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -1818,10 +1817,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>444</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2">
         <v>2.125</v>
@@ -1845,13 +1844,13 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L2" t="s">
         <v>112</v>
       </c>
-      <c r="L2" t="s">
-        <v>113</v>
-      </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N2">
         <v>162.55913333333299</v>
@@ -1860,18 +1859,18 @@
         <v>50.773181186287196</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1895,13 +1894,13 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" t="s">
         <v>114</v>
       </c>
-      <c r="L3" t="s">
-        <v>115</v>
-      </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N3">
         <v>125.766499560889</v>
@@ -1910,18 +1909,18 @@
         <v>45.8545164274434</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4">
         <v>5.875</v>
@@ -1945,13 +1944,13 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N4">
         <v>178.57696135831301</v>
@@ -1960,7 +1959,7 @@
         <v>63.880107087127698</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -1968,10 +1967,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>4.125</v>
@@ -1995,13 +1994,13 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N5">
         <v>165.84371376773399</v>
@@ -2010,7 +2009,7 @@
         <v>50.024926656703997</v>
       </c>
       <c r="P5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -2018,10 +2017,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6">
         <v>2.75</v>
@@ -2045,13 +2044,13 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N6">
         <v>130.42963211482899</v>
@@ -2060,18 +2059,18 @@
         <v>49.414325392484301</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7">
         <v>5.75</v>
@@ -2095,13 +2094,13 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" t="s">
         <v>114</v>
       </c>
-      <c r="L7" t="s">
-        <v>115</v>
-      </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N7">
         <v>98.457410881801096</v>
@@ -2110,7 +2109,7 @@
         <v>51.052386272690498</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -2118,10 +2117,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <v>5.5</v>
@@ -2145,13 +2144,13 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N8">
         <v>123.532589978828</v>
@@ -2160,18 +2159,18 @@
         <v>45.8695258015888</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9">
         <v>2.125</v>
@@ -2195,13 +2194,13 @@
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N9">
         <v>98.0177951388888</v>
@@ -2210,18 +2209,18 @@
         <v>55.770436855177799</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10">
         <v>2.75</v>
@@ -2245,13 +2244,13 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N10">
         <v>131.513455064402</v>
@@ -2260,7 +2259,7 @@
         <v>76.728463012822999</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -2268,10 +2267,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11">
         <v>2.25</v>
@@ -2295,13 +2294,13 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N11">
         <v>118.573854015828</v>
@@ -2310,18 +2309,18 @@
         <v>48.242023929613801</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12">
         <v>6.875</v>
@@ -2345,13 +2344,13 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N12">
         <v>107.033676083138</v>
@@ -2360,7 +2359,7 @@
         <v>39.1707303340146</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -2368,10 +2367,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13">
         <v>1.875</v>
@@ -2395,13 +2394,13 @@
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N13">
         <v>205.98624739039599</v>
@@ -2410,18 +2409,18 @@
         <v>34.135042998264801</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14">
         <v>2.375</v>
@@ -2445,13 +2444,13 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N14">
         <v>127.65697783768501</v>
@@ -2460,7 +2459,7 @@
         <v>53.6537207047677</v>
       </c>
       <c r="P14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -2468,10 +2467,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -2495,13 +2494,13 @@
         <v>2</v>
       </c>
       <c r="K15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" t="s">
         <v>112</v>
       </c>
-      <c r="L15" t="s">
-        <v>113</v>
-      </c>
       <c r="M15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N15">
         <v>89.033422459893004</v>
@@ -2510,18 +2509,18 @@
         <v>76.174107157987393</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D16">
         <v>6.875</v>
@@ -2545,13 +2544,13 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N16">
         <v>157.391323888968</v>
@@ -2560,18 +2559,18 @@
         <v>57.658865874038298</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17">
         <v>2.5</v>
@@ -2595,13 +2594,13 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" t="s">
         <v>112</v>
       </c>
-      <c r="L17" t="s">
-        <v>113</v>
-      </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N17">
         <v>139.83798888888799</v>
@@ -2610,18 +2609,18 @@
         <v>64.329384143409897</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18">
         <v>6.875</v>
@@ -2645,13 +2644,13 @@
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N18">
         <v>152.93182330827</v>
@@ -2660,18 +2659,18 @@
         <v>38.489766337742601</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19">
         <v>6.875</v>
@@ -2695,13 +2694,13 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N19">
         <v>169.40514638648699</v>
@@ -2710,18 +2709,18 @@
         <v>55.925991585376103</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20">
         <v>6.875</v>
@@ -2745,13 +2744,13 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N20">
         <v>117.669945701995</v>
@@ -2760,18 +2759,18 @@
         <v>34.864737574694303</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21">
         <v>3.875</v>
@@ -2795,13 +2794,13 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N21">
         <v>168.02913116790899</v>
@@ -2810,7 +2809,7 @@
         <v>50.206148800035997</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="17" x14ac:dyDescent="0.25">
@@ -2818,10 +2817,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22">
         <v>5.625</v>
@@ -2845,13 +2844,13 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" t="s">
         <v>112</v>
       </c>
-      <c r="L22" t="s">
-        <v>113</v>
-      </c>
       <c r="M22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N22">
         <v>156.49380952380901</v>
@@ -2860,7 +2859,7 @@
         <v>33.351149283763803</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="17" x14ac:dyDescent="0.25">
@@ -2868,10 +2867,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23">
         <v>5.75</v>
@@ -2895,13 +2894,13 @@
         <v>2</v>
       </c>
       <c r="K23" t="s">
+        <v>111</v>
+      </c>
+      <c r="L23" t="s">
         <v>112</v>
       </c>
-      <c r="L23" t="s">
-        <v>113</v>
-      </c>
       <c r="M23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N23">
         <v>113.05355679156899</v>
@@ -2910,7 +2909,7 @@
         <v>51.556878883708698</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="17" x14ac:dyDescent="0.25">
@@ -2918,10 +2917,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24">
         <v>2.625</v>
@@ -2945,13 +2944,13 @@
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N24">
         <v>180.21099604800901</v>
@@ -2960,18 +2959,18 @@
         <v>66.537204907219802</v>
       </c>
       <c r="P24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D25">
         <v>2.5</v>
@@ -2995,13 +2994,13 @@
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N25">
         <v>103.36622877634601</v>
@@ -3010,18 +3009,18 @@
         <v>53.4884922464284</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -3045,13 +3044,13 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N26">
         <v>80.9199612119438</v>
@@ -3060,7 +3059,7 @@
         <v>47.6107278583466</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="17" x14ac:dyDescent="0.25">
@@ -3068,10 +3067,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D27">
         <v>4.75</v>
@@ -3095,13 +3094,13 @@
         <v>2</v>
       </c>
       <c r="K27" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" t="s">
         <v>112</v>
       </c>
-      <c r="L27" t="s">
-        <v>113</v>
-      </c>
       <c r="M27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N27">
         <v>67.717740046838401</v>
@@ -3110,18 +3109,18 @@
         <v>51.431288953946698</v>
       </c>
       <c r="P27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <v>6.875</v>
@@ -3145,13 +3144,13 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N28">
         <v>139.39466115339499</v>
@@ -3160,7 +3159,7 @@
         <v>61.041442377455397</v>
       </c>
       <c r="P28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="17" x14ac:dyDescent="0.25">
@@ -3168,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>3.375</v>
@@ -3195,13 +3194,13 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N29">
         <v>125.222683694379</v>
@@ -3210,18 +3209,18 @@
         <v>49.437336496691898</v>
       </c>
       <c r="P29" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D30">
         <v>3.75</v>
@@ -3245,13 +3244,13 @@
         <v>2</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N30">
         <v>109.03662543911</v>
@@ -3260,10 +3259,10 @@
         <v>47.179197050575802</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="17" x14ac:dyDescent="0.25">
@@ -3271,10 +3270,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31">
         <v>3.5</v>
@@ -3298,13 +3297,13 @@
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N31">
         <v>66.665657933255204</v>
@@ -3313,7 +3312,7 @@
         <v>49.8256995176868</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="17" x14ac:dyDescent="0.25">
@@ -3321,10 +3320,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32">
         <v>2.125</v>
@@ -3348,13 +3347,13 @@
         <v>2</v>
       </c>
       <c r="K32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N32">
         <v>76.261716920374695</v>
@@ -3363,18 +3362,18 @@
         <v>36.937976119619698</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33">
         <v>3.75</v>
@@ -3398,13 +3397,13 @@
         <v>2</v>
       </c>
       <c r="K33" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" t="s">
         <v>112</v>
       </c>
-      <c r="L33" t="s">
-        <v>113</v>
-      </c>
       <c r="M33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N33">
         <v>124.744620901639</v>
@@ -3413,18 +3412,18 @@
         <v>46.653009696618803</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34">
         <v>6.875</v>
@@ -3448,13 +3447,13 @@
         <v>2</v>
       </c>
       <c r="K34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N34">
         <v>156.53590711805501</v>
@@ -3463,18 +3462,18 @@
         <v>85.218306850769196</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D35">
         <v>6.875</v>
@@ -3498,13 +3497,13 @@
         <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N35">
         <v>65.950900175643994</v>
@@ -3513,18 +3512,18 @@
         <v>38.693399095873502</v>
       </c>
       <c r="P35" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36">
         <v>3.5</v>
@@ -3548,13 +3547,13 @@
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N36">
         <v>94.188133050351198</v>
@@ -3563,18 +3562,18 @@
         <v>46.077876110855897</v>
       </c>
       <c r="P36" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D37">
         <v>2.75</v>
@@ -3598,13 +3597,13 @@
         <v>2</v>
       </c>
       <c r="K37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N37">
         <v>172.27279347189599</v>
@@ -3613,18 +3612,18 @@
         <v>36.095592425821501</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38">
         <v>4.375</v>
@@ -3648,13 +3647,13 @@
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N38">
         <v>116.134393296252</v>
@@ -3663,18 +3662,18 @@
         <v>43.783097194324903</v>
       </c>
       <c r="P38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D39">
         <v>6.875</v>
@@ -3698,13 +3697,13 @@
         <v>2</v>
       </c>
       <c r="K39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N39">
         <v>94.009422238372096</v>
@@ -3713,7 +3712,7 @@
         <v>59.111631568337202</v>
       </c>
       <c r="P39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -3721,10 +3720,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D40">
         <v>3.625</v>
@@ -3748,13 +3747,13 @@
         <v>2</v>
       </c>
       <c r="K40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N40">
         <v>92.722723946135801</v>
@@ -3763,18 +3762,18 @@
         <v>44.173403533581798</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D41">
         <v>3.625</v>
@@ -3798,13 +3797,13 @@
         <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N41">
         <v>75.5457463235294</v>
@@ -3813,7 +3812,7 @@
         <v>54.663164876258001</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -3821,10 +3820,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42">
         <v>6.875</v>
@@ -3848,13 +3847,13 @@
         <v>2</v>
       </c>
       <c r="K42" t="s">
+        <v>111</v>
+      </c>
+      <c r="L42" t="s">
         <v>112</v>
       </c>
-      <c r="L42" t="s">
-        <v>113</v>
-      </c>
       <c r="M42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N42">
         <v>198.26525691105701</v>
@@ -3863,18 +3862,18 @@
         <v>63.700933258954599</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43">
         <v>2.875</v>
@@ -3898,13 +3897,13 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N43">
         <v>81.397720286885203</v>
@@ -3913,18 +3912,18 @@
         <v>51.7681630854836</v>
       </c>
       <c r="P43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44">
         <v>2.625</v>
@@ -3948,13 +3947,13 @@
         <v>2</v>
       </c>
       <c r="K44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N44">
         <v>93.965617681498799</v>
@@ -3963,18 +3962,18 @@
         <v>51.936629667259403</v>
       </c>
       <c r="P44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45">
         <v>3.75</v>
@@ -3998,13 +3997,13 @@
         <v>2</v>
       </c>
       <c r="K45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N45">
         <v>151.55706967213101</v>
@@ -4013,18 +4012,18 @@
         <v>56.429950834464897</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46">
         <v>4.5</v>
@@ -4048,13 +4047,13 @@
         <v>2</v>
       </c>
       <c r="K46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N46">
         <v>101.486735216627</v>
@@ -4063,7 +4062,7 @@
         <v>47.100177358600099</v>
       </c>
       <c r="P46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -4071,10 +4070,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D47">
         <v>3.25</v>
@@ -4098,13 +4097,13 @@
         <v>2</v>
       </c>
       <c r="K47" t="s">
+        <v>111</v>
+      </c>
+      <c r="L47" t="s">
         <v>112</v>
       </c>
-      <c r="L47" t="s">
-        <v>113</v>
-      </c>
       <c r="M47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N47">
         <v>115.34566855641501</v>
@@ -4113,7 +4112,7 @@
         <v>59.872481016979997</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="17" x14ac:dyDescent="0.25">
@@ -4121,10 +4120,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D48">
         <v>6.875</v>
@@ -4148,13 +4147,13 @@
         <v>2</v>
       </c>
       <c r="K48" t="s">
+        <v>111</v>
+      </c>
+      <c r="L48" t="s">
         <v>112</v>
       </c>
-      <c r="L48" t="s">
-        <v>113</v>
-      </c>
       <c r="M48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N48">
         <v>162.571388319672</v>
@@ -4163,7 +4162,7 @@
         <v>56.425901136425701</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="17" x14ac:dyDescent="0.25">
@@ -4171,10 +4170,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49">
         <v>5.75</v>
@@ -4198,13 +4197,13 @@
         <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N49">
         <v>185.918215749414</v>
@@ -4213,18 +4212,18 @@
         <v>57.531419990814499</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50">
         <v>5.375</v>
@@ -4248,13 +4247,13 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
+        <v>113</v>
+      </c>
+      <c r="L50" t="s">
         <v>114</v>
       </c>
-      <c r="L50" t="s">
-        <v>115</v>
-      </c>
       <c r="M50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N50">
         <v>124.636881586651</v>
@@ -4263,7 +4262,7 @@
         <v>48.047364900723601</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="17" x14ac:dyDescent="0.25">
@@ -4271,10 +4270,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51">
         <v>2.25</v>
@@ -4298,13 +4297,13 @@
         <v>2</v>
       </c>
       <c r="K51" t="s">
+        <v>111</v>
+      </c>
+      <c r="L51" t="s">
         <v>112</v>
       </c>
-      <c r="L51" t="s">
-        <v>113</v>
-      </c>
       <c r="M51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N51">
         <v>114.184000880281</v>
@@ -4313,18 +4312,18 @@
         <v>51.696255654763398</v>
       </c>
       <c r="P51" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D52">
         <v>6.875</v>
@@ -4345,16 +4344,16 @@
         <v>0.93968823185011696</v>
       </c>
       <c r="J52" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N52">
         <v>144.22442183840749</v>
@@ -4363,18 +4362,18 @@
         <v>70.86776534565027</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D53">
         <v>2.75</v>
@@ -4395,16 +4394,16 @@
         <v>0.98822623239436602</v>
       </c>
       <c r="J53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N53">
         <v>110.8899794600939</v>
@@ -4413,18 +4412,18 @@
         <v>57.633212777389033</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D54">
         <v>2.5</v>
@@ -4445,16 +4444,16 @@
         <v>0.96842512376237599</v>
       </c>
       <c r="J54" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N54">
         <v>99.261471225247519</v>
@@ -4463,18 +4462,18 @@
         <v>49.023925197174663</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55">
         <v>3.25</v>
@@ -4495,16 +4494,16 @@
         <v>0.93270638173302101</v>
       </c>
       <c r="J55" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N55">
         <v>116.36527005269321</v>
@@ -4513,18 +4512,18 @@
         <v>33.250187305882882</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D56">
         <v>2.875</v>
@@ -4545,16 +4544,16 @@
         <v>0.985370741482965</v>
       </c>
       <c r="J56" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N56">
         <v>91.554440130260517</v>
@@ -4563,21 +4562,21 @@
         <v>38.171659450496932</v>
       </c>
       <c r="P56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q56" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D57">
         <v>6.875</v>
@@ -4598,16 +4597,16 @@
         <v>0.96331235362997603</v>
       </c>
       <c r="J57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K57" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N57">
         <v>146.00552180913351</v>
@@ -4616,18 +4615,18 @@
         <v>51.362551757072673</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58">
         <v>9.5</v>
@@ -4648,16 +4647,16 @@
         <v>0.95009514051522204</v>
       </c>
       <c r="J58" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N58">
         <v>144.66060450819671</v>
@@ -4666,18 +4665,18 @@
         <v>69.845057125608079</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -4698,16 +4697,16 @@
         <v>0.95571209016393399</v>
       </c>
       <c r="J59" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N59">
         <v>167.6185450819672</v>
@@ -4716,18 +4715,18 @@
         <v>59.064837288666922</v>
       </c>
       <c r="P59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D60">
         <v>2.75</v>
@@ -4748,16 +4747,16 @@
         <v>0.927770052693208</v>
       </c>
       <c r="J60" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N60">
         <v>126.0956454918033</v>
@@ -4766,18 +4765,18 @@
         <v>50.52343697195812</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D61">
         <v>6.875</v>
@@ -4798,16 +4797,16 @@
         <v>0.811453454332552</v>
       </c>
       <c r="J61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N61">
         <v>184.65232728337239</v>
@@ -4816,18 +4815,18 @@
         <v>55.455625624614868</v>
       </c>
       <c r="P61" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62">
         <v>4.625</v>
@@ -4848,16 +4847,16 @@
         <v>0.986087529274004</v>
       </c>
       <c r="J62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L62" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N62">
         <v>129.09213992974239</v>
@@ -4866,18 +4865,18 @@
         <v>33.827634398387438</v>
       </c>
       <c r="P62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D63">
         <v>3.125</v>
@@ -4898,16 +4897,16 @@
         <v>0.94623097189695504</v>
       </c>
       <c r="J63" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K63" t="s">
+        <v>113</v>
+      </c>
+      <c r="L63" t="s">
         <v>114</v>
       </c>
-      <c r="L63" t="s">
-        <v>115</v>
-      </c>
       <c r="M63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N63">
         <v>120.1855093676815</v>
@@ -4916,18 +4915,18 @@
         <v>64.211838240569719</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64">
         <v>6.875</v>
@@ -4948,16 +4947,16 @@
         <v>0.97502927400468298</v>
       </c>
       <c r="J64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N64">
         <v>120.18955649882901</v>
@@ -4966,18 +4965,18 @@
         <v>71.252682903824379</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D65">
         <v>6.75</v>
@@ -4998,16 +4997,16 @@
         <v>0.95389727011494196</v>
       </c>
       <c r="J65" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N65">
         <v>147.4649856321839</v>
@@ -5016,18 +5015,18 @@
         <v>78.963044805409609</v>
       </c>
       <c r="P65" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D66">
         <v>6.875</v>
@@ -5048,16 +5047,16 @@
         <v>0.85229069086650999</v>
       </c>
       <c r="J66" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K66" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N66">
         <v>103.68580210772831</v>
@@ -5066,18 +5065,18 @@
         <v>58.105264900056177</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D67">
         <v>6</v>
@@ -5098,16 +5097,16 @@
         <v>0.97168955176767602</v>
       </c>
       <c r="J67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K67" t="s">
+        <v>113</v>
+      </c>
+      <c r="L67" t="s">
         <v>114</v>
       </c>
-      <c r="L67" t="s">
-        <v>115</v>
-      </c>
       <c r="M67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N67">
         <v>115.7401633522727</v>
@@ -5116,18 +5115,18 @@
         <v>55.729837661092851</v>
       </c>
       <c r="P67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D68">
         <v>4.75</v>
@@ -5148,16 +5147,16 @@
         <v>0.99261675824175799</v>
       </c>
       <c r="J68" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K68" t="s">
+        <v>113</v>
+      </c>
+      <c r="L68" t="s">
         <v>114</v>
       </c>
-      <c r="L68" t="s">
-        <v>115</v>
-      </c>
       <c r="M68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N68">
         <v>119.6186298076923</v>
@@ -5166,18 +5165,18 @@
         <v>53.729688628822231</v>
       </c>
       <c r="P68" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D69">
         <v>6.875</v>
@@ -5198,16 +5197,16 @@
         <v>0.96632812499999998</v>
       </c>
       <c r="J69" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N69">
         <v>124.5344791666667</v>
@@ -5216,18 +5215,18 @@
         <v>66.09106651532754</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D70">
         <v>2.75</v>
@@ -5248,16 +5247,16 @@
         <v>0.97328747072599497</v>
       </c>
       <c r="J70" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N70">
         <v>71.400322014051525</v>
@@ -5266,18 +5265,18 @@
         <v>42.141337693411423</v>
       </c>
       <c r="P70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D71">
         <v>6.875</v>
@@ -5298,16 +5297,16 @@
         <v>0.98508123536299697</v>
       </c>
       <c r="J71" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K71" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N71">
         <v>122.03624853629979</v>
@@ -5316,18 +5315,18 @@
         <v>65.682937858323996</v>
       </c>
       <c r="P71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D72">
         <v>3.25</v>
@@ -5348,16 +5347,16 @@
         <v>0.98625219555035104</v>
       </c>
       <c r="J72" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N72">
         <v>94.446128512880563</v>
@@ -5366,18 +5365,18 @@
         <v>39.260277945280563</v>
       </c>
       <c r="P72" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D73">
         <v>6.375</v>
@@ -5398,16 +5397,16 @@
         <v>0.90399498886414198</v>
       </c>
       <c r="J73" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N73">
         <v>135.77519139755009</v>
@@ -5416,18 +5415,18 @@
         <v>47.903441767662052</v>
       </c>
       <c r="P73" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D74">
         <v>6.875</v>
@@ -5448,16 +5447,16 @@
         <v>0.93424295774647803</v>
       </c>
       <c r="J74" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N74">
         <v>123.88723224765261</v>
@@ -5466,18 +5465,18 @@
         <v>59.114889859144249</v>
       </c>
       <c r="P74" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D75">
         <v>6.875</v>
@@ -5498,16 +5497,16 @@
         <v>0.86456747658079602</v>
       </c>
       <c r="J75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L75" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N75">
         <v>84.177243120608892</v>
@@ -5516,18 +5515,18 @@
         <v>41.870356511666976</v>
       </c>
       <c r="P75" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D76">
         <v>4.375</v>
@@ -5548,16 +5547,16 @@
         <v>0.97586724238875799</v>
       </c>
       <c r="J76" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L76" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N76">
         <v>134.04213261124119</v>
@@ -5566,18 +5565,18 @@
         <v>78.500970118643082</v>
       </c>
       <c r="P76" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D77">
         <v>3.125</v>
@@ -5598,16 +5597,16 @@
         <v>0.88211943069306897</v>
       </c>
       <c r="J77" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N77">
         <v>104.84971534653469</v>
@@ -5616,18 +5615,18 @@
         <v>63.198524608630798</v>
       </c>
       <c r="P77" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D78">
         <v>6</v>
@@ -5648,16 +5647,16 @@
         <v>0.937876902810304</v>
       </c>
       <c r="J78" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N78">
         <v>112.17260685011711</v>
@@ -5666,18 +5665,18 @@
         <v>65.050116261093891</v>
       </c>
       <c r="P78" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D79">
         <v>6.75</v>
@@ -5698,16 +5697,16 @@
         <v>0.96313305035128804</v>
       </c>
       <c r="J79" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N79">
         <v>91.061457113583131</v>
@@ -5716,18 +5715,18 @@
         <v>57.851683240853482</v>
       </c>
       <c r="P79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D80">
         <v>4</v>
@@ -5748,16 +5747,16 @@
         <v>0.90815755208333304</v>
       </c>
       <c r="J80" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K80" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N80">
         <v>96.571210937499998</v>
@@ -5766,18 +5765,18 @@
         <v>54.814894411366339</v>
       </c>
       <c r="P80" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -5798,16 +5797,16 @@
         <v>0.93250146370023401</v>
       </c>
       <c r="J81" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L81" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N81">
         <v>137.98950892857141</v>
@@ -5816,18 +5815,18 @@
         <v>50.268773767017478</v>
       </c>
       <c r="P81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C82" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82">
         <v>3.625</v>
@@ -5848,16 +5847,16 @@
         <v>0.97830064402810302</v>
       </c>
       <c r="J82" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N82">
         <v>110.8503988583138</v>
@@ -5866,21 +5865,21 @@
         <v>50.908873054917613</v>
       </c>
       <c r="P82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q82" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D83">
         <v>6.875</v>
@@ -5901,16 +5900,16 @@
         <v>0.94165084696261603</v>
       </c>
       <c r="J83" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K83" t="s">
+        <v>113</v>
+      </c>
+      <c r="L83" t="s">
         <v>114</v>
       </c>
-      <c r="L83" t="s">
-        <v>115</v>
-      </c>
       <c r="M83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N83">
         <v>137.0669027453271</v>
@@ -5919,18 +5918,18 @@
         <v>41.814593501090549</v>
       </c>
       <c r="P83" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D84">
         <v>2.875</v>
@@ -5951,16 +5950,16 @@
         <v>0.94735107421874998</v>
       </c>
       <c r="J84" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L84" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N84">
         <v>162.5913134765625</v>
@@ -5969,18 +5968,18 @@
         <v>71.707954876525719</v>
       </c>
       <c r="P84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D85">
         <v>6.625</v>
@@ -6001,16 +6000,16 @@
         <v>0.98130122950819598</v>
       </c>
       <c r="J85" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N85">
         <v>160.57591847189701</v>
@@ -6019,21 +6018,21 @@
         <v>67.126623956359609</v>
       </c>
       <c r="P85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q85" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D86">
         <v>4.75</v>
@@ -6054,16 +6053,16 @@
         <v>0.97644917582417501</v>
       </c>
       <c r="J86" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K86" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N86">
         <v>150.688595467033</v>
@@ -6072,18 +6071,18 @@
         <v>77.319355684657552</v>
       </c>
       <c r="P86" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D87">
         <v>6.875</v>
@@ -6104,16 +6103,16 @@
         <v>0.97293632075471703</v>
       </c>
       <c r="J87" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L87" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N87">
         <v>125.56041789504719</v>
@@ -6122,18 +6121,18 @@
         <v>56.640507651037503</v>
       </c>
       <c r="P87" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D88">
         <v>6.25</v>
@@ -6154,16 +6153,16 @@
         <v>0.96600556206088894</v>
       </c>
       <c r="J88" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N88">
         <v>95.594719701405154</v>
@@ -6172,18 +6171,18 @@
         <v>55.903625300426327</v>
       </c>
       <c r="P88" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D89">
         <v>6.875</v>
@@ -6204,16 +6203,16 @@
         <v>0.88719301876379597</v>
       </c>
       <c r="J89" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N89">
         <v>127.4423220198675</v>
@@ -6222,18 +6221,18 @@
         <v>40.251347663461651</v>
       </c>
       <c r="P89" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90">
         <v>6.875</v>
@@ -6254,16 +6253,16 @@
         <v>0.92504340277777697</v>
       </c>
       <c r="J90" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N90">
         <v>127.62365451388889</v>
@@ -6272,18 +6271,18 @@
         <v>70.297014009835848</v>
       </c>
       <c r="P90" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91">
         <v>4.125</v>
@@ -6304,16 +6303,16 @@
         <v>0.95623046874999995</v>
       </c>
       <c r="J91" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N91">
         <v>147.052861328125</v>
@@ -6322,18 +6321,18 @@
         <v>75.253480199168422</v>
       </c>
       <c r="P91" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B92" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D92">
         <v>5.875</v>
@@ -6354,16 +6353,16 @@
         <v>0.97261050936768101</v>
       </c>
       <c r="J92" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N92">
         <v>164.66662763466039</v>
@@ -6372,18 +6371,18 @@
         <v>79.802971518853312</v>
       </c>
       <c r="P92" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D93">
         <v>4.75</v>
@@ -6404,16 +6403,16 @@
         <v>0.96873501199040701</v>
       </c>
       <c r="J93" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N93">
         <v>111.1002398081535</v>
@@ -6422,18 +6421,18 @@
         <v>39.689332700899207</v>
       </c>
       <c r="P93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -6454,16 +6453,16 @@
         <v>0.97346691176470501</v>
       </c>
       <c r="J94" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N94">
         <v>165.16511029411771</v>
@@ -6472,21 +6471,21 @@
         <v>63.632976290201483</v>
       </c>
       <c r="P94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q94" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D95">
         <v>6.625</v>
@@ -6507,16 +6506,16 @@
         <v>0.90209468664850101</v>
       </c>
       <c r="J95" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N95">
         <v>182.71854138283379</v>
@@ -6525,18 +6524,18 @@
         <v>83.283379091513368</v>
       </c>
       <c r="P95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C96" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D96">
         <v>5.75</v>
@@ -6557,16 +6556,16 @@
         <v>0.98614358513189404</v>
       </c>
       <c r="J96" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N96">
         <v>104.3495616007194</v>
@@ -6575,18 +6574,18 @@
         <v>49.950428014249162</v>
       </c>
       <c r="P96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D97">
         <v>4</v>
@@ -6607,16 +6606,16 @@
         <v>0.98427083333333298</v>
       </c>
       <c r="J97" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N97">
         <v>122.0691373697917</v>
@@ -6625,18 +6624,18 @@
         <v>40.144374583803113</v>
       </c>
       <c r="P97" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D98">
         <v>5</v>
@@ -6657,16 +6656,16 @@
         <v>0.95658299180327799</v>
       </c>
       <c r="J98" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K98" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N98">
         <v>111.8897943501171</v>
@@ -6675,18 +6674,18 @@
         <v>54.615766973821707</v>
       </c>
       <c r="P98" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D99">
         <v>4.25</v>
@@ -6707,16 +6706,16 @@
         <v>0.96932816159250501</v>
       </c>
       <c r="J99" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N99">
         <v>115.1775541569087</v>
@@ -6725,18 +6724,18 @@
         <v>46.626264528680593</v>
       </c>
       <c r="P99" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D100">
         <v>5.875</v>
@@ -6757,16 +6756,16 @@
         <v>0.88557889344262297</v>
       </c>
       <c r="J100" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K100" t="s">
+        <v>113</v>
+      </c>
+      <c r="L100" t="s">
         <v>114</v>
       </c>
-      <c r="L100" t="s">
-        <v>115</v>
-      </c>
       <c r="M100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N100">
         <v>114.01449429156909</v>
@@ -6775,18 +6774,18 @@
         <v>60.005677811143869</v>
       </c>
       <c r="P100" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D101">
         <v>3.25</v>
@@ -6807,16 +6806,16 @@
         <v>0.97116876463700197</v>
       </c>
       <c r="J101" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N101">
         <v>97.227942037470726</v>
@@ -6825,18 +6824,18 @@
         <v>35.680465563724198</v>
       </c>
       <c r="P101" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" t="s">
         <v>233</v>
       </c>
-      <c r="B102" t="s">
-        <v>234</v>
-      </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D102">
         <v>5.25</v>
@@ -6857,16 +6856,16 @@
         <v>0.96835846018735305</v>
       </c>
       <c r="J102" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N102">
         <v>145.84650907494151</v>
@@ -6875,18 +6874,18 @@
         <v>56.738612393145957</v>
       </c>
       <c r="P102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>234</v>
+      </c>
+      <c r="B103" t="s">
         <v>235</v>
       </c>
-      <c r="B103" t="s">
-        <v>236</v>
-      </c>
       <c r="C103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D103">
         <v>6.75</v>
@@ -6907,16 +6906,16 @@
         <v>0.97311548594847697</v>
       </c>
       <c r="J103" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K103" t="s">
+        <v>113</v>
+      </c>
+      <c r="L103" t="s">
         <v>114</v>
       </c>
-      <c r="L103" t="s">
-        <v>115</v>
-      </c>
       <c r="M103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N103">
         <v>93.894712382903975</v>
@@ -6925,21 +6924,21 @@
         <v>57.677074369744368</v>
       </c>
       <c r="P103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q103" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>236</v>
+      </c>
+      <c r="B104" t="s">
         <v>237</v>
       </c>
-      <c r="B104" t="s">
-        <v>238</v>
-      </c>
       <c r="C104" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D104">
         <v>2.5</v>
@@ -6960,16 +6959,16 @@
         <v>0.97326956775700901</v>
       </c>
       <c r="J104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N104">
         <v>112.0292567172897</v>
@@ -6978,21 +6977,21 @@
         <v>35.013784438615573</v>
       </c>
       <c r="P104" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q104" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" t="s">
         <v>239</v>
       </c>
-      <c r="B105" t="s">
-        <v>240</v>
-      </c>
       <c r="C105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105">
         <v>2.375</v>
@@ -7013,16 +7012,16 @@
         <v>0.98821940104166595</v>
       </c>
       <c r="J105" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N105">
         <v>185.35187825520831</v>
@@ -7031,21 +7030,21 @@
         <v>77.285982799310446</v>
       </c>
       <c r="P105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q105" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" t="s">
         <v>241</v>
       </c>
-      <c r="B106" t="s">
-        <v>242</v>
-      </c>
       <c r="C106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106">
         <v>4.75</v>
@@ -7066,16 +7065,16 @@
         <v>0.97736029411764702</v>
       </c>
       <c r="J106" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N106">
         <v>114.4706470588235</v>
@@ -7084,18 +7083,18 @@
         <v>42.035212686446357</v>
       </c>
       <c r="P106" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" t="s">
         <v>243</v>
       </c>
-      <c r="B107" t="s">
-        <v>244</v>
-      </c>
       <c r="C107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107">
         <v>2.625</v>
@@ -7116,16 +7115,16 @@
         <v>0.96394906323185003</v>
       </c>
       <c r="J107" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N107">
         <v>90.673532640515219</v>
@@ -7134,18 +7133,18 @@
         <v>39.42429928245452</v>
       </c>
       <c r="P107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>244</v>
+      </c>
+      <c r="B108" t="s">
         <v>245</v>
       </c>
-      <c r="B108" t="s">
-        <v>246</v>
-      </c>
       <c r="C108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108">
         <v>4.375</v>
@@ -7166,16 +7165,16 @@
         <v>0.98808913934426201</v>
       </c>
       <c r="J108" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N108">
         <v>87.949981703747071</v>
@@ -7184,21 +7183,21 @@
         <v>43.586623288118552</v>
       </c>
       <c r="P108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q108" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>246</v>
+      </c>
+      <c r="B109" t="s">
         <v>247</v>
       </c>
-      <c r="B109" t="s">
-        <v>248</v>
-      </c>
       <c r="C109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D109">
         <v>1.75</v>
@@ -7219,16 +7218,16 @@
         <v>0.98922716627634599</v>
       </c>
       <c r="J109" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N109">
         <v>109.9413788056206</v>
@@ -7237,18 +7236,18 @@
         <v>23.940148968568121</v>
       </c>
       <c r="P109" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>248</v>
+      </c>
+      <c r="B110" t="s">
         <v>249</v>
       </c>
-      <c r="B110" t="s">
-        <v>250</v>
-      </c>
       <c r="C110" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D110">
         <v>6.75</v>
@@ -7269,16 +7268,16 @@
         <v>0.92302766393442603</v>
       </c>
       <c r="J110" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N110">
         <v>112.8289117388759</v>
@@ -7287,18 +7286,18 @@
         <v>52.088926526887377</v>
       </c>
       <c r="P110" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>250</v>
+      </c>
+      <c r="B111" t="s">
         <v>251</v>
       </c>
-      <c r="B111" t="s">
-        <v>252</v>
-      </c>
       <c r="C111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111">
         <v>6.875</v>
@@ -7319,16 +7318,16 @@
         <v>0.95776595744680804</v>
       </c>
       <c r="J111" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N111">
         <v>107.68810505319151</v>
@@ -7337,18 +7336,18 @@
         <v>43.283914158825269</v>
       </c>
       <c r="P111" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>252</v>
+      </c>
+      <c r="B112" t="s">
         <v>253</v>
       </c>
-      <c r="B112" t="s">
-        <v>254</v>
-      </c>
       <c r="C112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D112">
         <v>3.125</v>
@@ -7369,16 +7368,16 @@
         <v>0.88443354800936702</v>
       </c>
       <c r="J112" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N112">
         <v>106.6872292154567</v>
@@ -7387,18 +7386,18 @@
         <v>58.060025523097103</v>
       </c>
       <c r="P112" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" t="s">
         <v>255</v>
       </c>
-      <c r="B113" t="s">
-        <v>256</v>
-      </c>
       <c r="C113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D113">
         <v>5.75</v>
@@ -7419,16 +7418,16 @@
         <v>0.94101653981264599</v>
       </c>
       <c r="J113" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N113">
         <v>108.2551412470726</v>
@@ -7437,18 +7436,18 @@
         <v>37.210441418351927</v>
       </c>
       <c r="P113" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>256</v>
+      </c>
+      <c r="B114" t="s">
         <v>257</v>
       </c>
-      <c r="B114" t="s">
-        <v>258</v>
-      </c>
       <c r="C114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114">
         <v>3.375</v>
@@ -7469,16 +7468,16 @@
         <v>0.97351068501170901</v>
       </c>
       <c r="J114" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K114" t="s">
+        <v>113</v>
+      </c>
+      <c r="L114" t="s">
         <v>114</v>
       </c>
-      <c r="L114" t="s">
-        <v>115</v>
-      </c>
       <c r="M114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N114">
         <v>120.6953198185012</v>
@@ -7487,21 +7486,21 @@
         <v>39.205591086623599</v>
       </c>
       <c r="P114" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>258</v>
+      </c>
+      <c r="B115" t="s">
         <v>259</v>
       </c>
-      <c r="B115" t="s">
-        <v>260</v>
-      </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D115">
         <v>4</v>
@@ -7522,16 +7521,16 @@
         <v>0.98538989485981299</v>
       </c>
       <c r="J115" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M115" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N115">
         <v>92.47294830607477</v>
@@ -7540,18 +7539,18 @@
         <v>63.071327290391558</v>
       </c>
       <c r="P115" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>260</v>
+      </c>
+      <c r="B116" t="s">
         <v>261</v>
       </c>
-      <c r="B116" t="s">
-        <v>262</v>
-      </c>
       <c r="C116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D116">
         <v>3.25</v>
@@ -7572,16 +7571,16 @@
         <v>0.96798177083333303</v>
       </c>
       <c r="J116" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K116" t="s">
+        <v>113</v>
+      </c>
+      <c r="L116" t="s">
         <v>114</v>
       </c>
-      <c r="L116" t="s">
-        <v>115</v>
-      </c>
       <c r="M116" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N116">
         <v>128.18840711805561</v>
@@ -7590,18 +7589,18 @@
         <v>45.163191752218893</v>
       </c>
       <c r="P116" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" t="s">
         <v>263</v>
       </c>
-      <c r="B117" t="s">
-        <v>264</v>
-      </c>
       <c r="C117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D117">
         <v>5.875</v>
@@ -7622,16 +7621,16 @@
         <v>0.88199968434343401</v>
       </c>
       <c r="J117" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M117" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N117">
         <v>131.07764625420879</v>
@@ -7640,18 +7639,18 @@
         <v>43.020247733882613</v>
       </c>
       <c r="P117" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>264</v>
+      </c>
+      <c r="B118" t="s">
         <v>265</v>
       </c>
-      <c r="B118" t="s">
-        <v>266</v>
-      </c>
       <c r="C118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D118">
         <v>5.875</v>
@@ -7672,16 +7671,16 @@
         <v>0.95622716597077195</v>
       </c>
       <c r="J118" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N118">
         <v>93.306357646137783</v>
@@ -7690,18 +7689,18 @@
         <v>52.284699428156237</v>
       </c>
       <c r="P118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>266</v>
+      </c>
+      <c r="B119" t="s">
         <v>267</v>
       </c>
-      <c r="B119" t="s">
-        <v>268</v>
-      </c>
       <c r="C119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D119">
         <v>4</v>
@@ -7722,16 +7721,16 @@
         <v>0.98053093905472599</v>
       </c>
       <c r="J119" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N119">
         <v>135.2234958022388</v>
@@ -7740,18 +7739,18 @@
         <v>40.636067297547761</v>
       </c>
       <c r="P119" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>268</v>
+      </c>
+      <c r="B120" t="s">
         <v>269</v>
       </c>
-      <c r="B120" t="s">
-        <v>270</v>
-      </c>
       <c r="C120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D120">
         <v>4.125</v>
@@ -7772,16 +7771,16 @@
         <v>0.97776471480582505</v>
       </c>
       <c r="J120" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K120" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L120" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N120">
         <v>113.6798202366505</v>
@@ -7790,18 +7789,18 @@
         <v>38.545468893328952</v>
       </c>
       <c r="P120" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" t="s">
         <v>271</v>
       </c>
-      <c r="B121" t="s">
-        <v>272</v>
-      </c>
       <c r="C121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D121">
         <v>6.625</v>
@@ -7822,16 +7821,16 @@
         <v>0.98836428140096599</v>
       </c>
       <c r="J121" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K121" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L121" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N121">
         <v>112.53668855676329</v>
@@ -7840,18 +7839,18 @@
         <v>31.420288871233421</v>
       </c>
       <c r="P121" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>272</v>
+      </c>
+      <c r="B122" t="s">
         <v>273</v>
       </c>
-      <c r="B122" t="s">
-        <v>274</v>
-      </c>
       <c r="C122" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D122">
         <v>5.375</v>
@@ -7872,16 +7871,16 @@
         <v>0.98994885089686102</v>
       </c>
       <c r="J122" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L122" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N122">
         <v>152.91654638452911</v>
@@ -7890,18 +7889,18 @@
         <v>65.55149320595369</v>
       </c>
       <c r="P122" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>274</v>
+      </c>
+      <c r="B123" t="s">
         <v>275</v>
       </c>
-      <c r="B123" t="s">
-        <v>276</v>
-      </c>
       <c r="C123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D123">
         <v>2.625</v>
@@ -7922,16 +7921,16 @@
         <v>0.96605588440111401</v>
       </c>
       <c r="J123" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N123">
         <v>85.37507834261838</v>
@@ -7940,18 +7939,18 @@
         <v>32.756326608454863</v>
       </c>
       <c r="P123" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B124" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D124">
         <v>5.25</v>
@@ -7972,16 +7971,16 @@
         <v>0.97931059718969504</v>
       </c>
       <c r="J124" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N124">
         <v>123.13243925644031</v>
@@ -7990,18 +7989,18 @@
         <v>47.595566887417817</v>
       </c>
       <c r="P124" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>277</v>
+      </c>
+      <c r="B125" t="s">
         <v>278</v>
       </c>
-      <c r="B125" t="s">
-        <v>279</v>
-      </c>
       <c r="C125" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D125">
         <v>6.875</v>
@@ -8022,16 +8021,16 @@
         <v>0.89285079928952005</v>
       </c>
       <c r="J125" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K125" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N125">
         <v>114.7265402975133</v>
@@ -8040,18 +8039,18 @@
         <v>47.632349715645198</v>
       </c>
       <c r="P125" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>279</v>
+      </c>
+      <c r="B126" t="s">
         <v>280</v>
       </c>
-      <c r="B126" t="s">
-        <v>281</v>
-      </c>
       <c r="C126" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D126">
         <v>4.75</v>
@@ -8072,16 +8071,16 @@
         <v>0.96867315573770496</v>
       </c>
       <c r="J126" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K126" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M126" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N126">
         <v>108.8771992096019</v>
@@ -8090,18 +8089,18 @@
         <v>46.262066645334379</v>
       </c>
       <c r="P126" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>281</v>
+      </c>
+      <c r="B127" t="s">
         <v>282</v>
       </c>
-      <c r="B127" t="s">
-        <v>283</v>
-      </c>
       <c r="C127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D127">
         <v>6.875</v>
@@ -8122,16 +8121,16 @@
         <v>0.93484374999999997</v>
       </c>
       <c r="J127" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K127" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M127" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N127">
         <v>139.75067274305559</v>
@@ -8140,18 +8139,18 @@
         <v>63.880152372131107</v>
       </c>
       <c r="P127" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>283</v>
+      </c>
+      <c r="B128" t="s">
         <v>284</v>
       </c>
-      <c r="B128" t="s">
-        <v>285</v>
-      </c>
       <c r="C128" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D128">
         <v>4.125</v>
@@ -8172,16 +8171,16 @@
         <v>0.90987631733021002</v>
       </c>
       <c r="J128" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N128">
         <v>166.76798155737711</v>
@@ -8190,18 +8189,18 @@
         <v>55.916066940767173</v>
       </c>
       <c r="P128" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>285</v>
+      </c>
+      <c r="B129" t="s">
         <v>286</v>
       </c>
-      <c r="B129" t="s">
-        <v>287</v>
-      </c>
       <c r="C129" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D129">
         <v>3.875</v>
@@ -8222,16 +8221,16 @@
         <v>0.94210699648711904</v>
       </c>
       <c r="J129" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L129" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N129">
         <v>119.40321648126459</v>
@@ -8240,18 +8239,18 @@
         <v>46.242343192618819</v>
       </c>
       <c r="P129" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>287</v>
+      </c>
+      <c r="B130" t="s">
         <v>288</v>
       </c>
-      <c r="B130" t="s">
-        <v>289</v>
-      </c>
       <c r="C130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D130">
         <v>5.625</v>
@@ -8272,16 +8271,16 @@
         <v>0.83697481732776602</v>
       </c>
       <c r="J130" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L130" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M130" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N130">
         <v>138.62696046450941</v>
@@ -8290,18 +8289,18 @@
         <v>48.385003015328543</v>
       </c>
       <c r="P130" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>289</v>
+      </c>
+      <c r="B131" t="s">
         <v>290</v>
       </c>
-      <c r="B131" t="s">
-        <v>291</v>
-      </c>
       <c r="C131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D131">
         <v>6.625</v>
@@ -8322,16 +8321,16 @@
         <v>0.92680989583333295</v>
       </c>
       <c r="J131" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K131" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N131">
         <v>109.5129459635417</v>
@@ -8340,18 +8339,18 @@
         <v>63.647951479375124</v>
       </c>
       <c r="P131" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>291</v>
+      </c>
+      <c r="B132" t="s">
         <v>292</v>
       </c>
-      <c r="B132" t="s">
-        <v>293</v>
-      </c>
       <c r="C132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D132">
         <v>5.25</v>
@@ -8372,16 +8371,16 @@
         <v>0.95503512880562003</v>
       </c>
       <c r="J132" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K132" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L132" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M132" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N132">
         <v>117.71276346604211</v>
@@ -8390,18 +8389,18 @@
         <v>34.518412525997128</v>
       </c>
       <c r="P132" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>293</v>
+      </c>
+      <c r="B133" t="s">
         <v>294</v>
       </c>
-      <c r="B133" t="s">
-        <v>295</v>
-      </c>
       <c r="C133" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D133">
         <v>3</v>
@@ -8422,16 +8421,16 @@
         <v>0.92282640515222403</v>
       </c>
       <c r="J133" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K133" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L133" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M133" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N133">
         <v>81.123236241217796</v>
@@ -8440,18 +8439,18 @@
         <v>52.205165256840182</v>
       </c>
       <c r="P133" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>295</v>
+      </c>
+      <c r="B134" t="s">
         <v>296</v>
       </c>
-      <c r="B134" t="s">
-        <v>297</v>
-      </c>
       <c r="C134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D134">
         <v>2.75</v>
@@ -8472,16 +8471,16 @@
         <v>0.96344263497652505</v>
       </c>
       <c r="J134" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K134" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M134" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N134">
         <v>141.88753667840379</v>
@@ -8490,18 +8489,18 @@
         <v>57.883771224961762</v>
       </c>
       <c r="P134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>297</v>
+      </c>
+      <c r="B135" t="s">
         <v>298</v>
       </c>
-      <c r="B135" t="s">
-        <v>299</v>
-      </c>
       <c r="C135" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D135">
         <v>6</v>
@@ -8522,16 +8521,16 @@
         <v>0.99136377068557902</v>
       </c>
       <c r="J135" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K135" t="s">
+        <v>113</v>
+      </c>
+      <c r="L135" t="s">
         <v>114</v>
       </c>
-      <c r="L135" t="s">
-        <v>115</v>
-      </c>
       <c r="M135" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N135">
         <v>138.9338467789598</v>
@@ -8540,18 +8539,18 @@
         <v>48.518946672695961</v>
       </c>
       <c r="P135" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>299</v>
+      </c>
+      <c r="B136" t="s">
         <v>300</v>
       </c>
-      <c r="B136" t="s">
-        <v>301</v>
-      </c>
       <c r="C136" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D136">
         <v>2.75</v>
@@ -8572,16 +8571,16 @@
         <v>0.98430913348946103</v>
       </c>
       <c r="J136" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K136" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M136" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N136">
         <v>146.05606703747071</v>
@@ -8590,18 +8589,18 @@
         <v>34.785475092465241</v>
       </c>
       <c r="P136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>301</v>
+      </c>
+      <c r="B137" t="s">
         <v>302</v>
       </c>
-      <c r="B137" t="s">
-        <v>303</v>
-      </c>
       <c r="C137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D137">
         <v>1.5</v>
@@ -8622,16 +8621,16 @@
         <v>0.95618779274004595</v>
       </c>
       <c r="J137" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K137" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M137" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N137">
         <v>171.13056572014051</v>
@@ -8640,18 +8639,18 @@
         <v>54.524623502297352</v>
       </c>
       <c r="P137" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="138" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>303</v>
+      </c>
+      <c r="B138" t="s">
         <v>304</v>
       </c>
-      <c r="B138" t="s">
-        <v>305</v>
-      </c>
       <c r="C138" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D138">
         <v>3.375</v>
@@ -8672,16 +8671,16 @@
         <v>0.98171549479166598</v>
       </c>
       <c r="J138" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K138" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N138">
         <v>147.39905924479169</v>
@@ -8690,21 +8689,21 @@
         <v>67.219540032448762</v>
       </c>
       <c r="P138" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q138" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>305</v>
+      </c>
+      <c r="B139" t="s">
         <v>306</v>
       </c>
-      <c r="B139" t="s">
-        <v>307</v>
-      </c>
       <c r="C139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D139">
         <v>3</v>
@@ -8725,16 +8724,16 @@
         <v>0.94358899297423804</v>
       </c>
       <c r="J139" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N139">
         <v>126.3290288348946</v>
@@ -8743,18 +8742,18 @@
         <v>36.546492417779618</v>
       </c>
       <c r="P139" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>307</v>
+      </c>
+      <c r="B140" t="s">
         <v>308</v>
       </c>
-      <c r="B140" t="s">
-        <v>309</v>
-      </c>
       <c r="C140" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D140">
         <v>3.625</v>
@@ -8775,16 +8774,16 @@
         <v>0.95492901053864099</v>
       </c>
       <c r="J140" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K140" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L140" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N140">
         <v>128.89837529274001</v>
@@ -8793,18 +8792,18 @@
         <v>34.371421141789568</v>
       </c>
       <c r="P140" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>309</v>
+      </c>
+      <c r="B141" t="s">
         <v>310</v>
       </c>
-      <c r="B141" t="s">
-        <v>311</v>
-      </c>
       <c r="C141" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D141">
         <v>4</v>
@@ -8825,16 +8824,16 @@
         <v>0.99175406678082101</v>
       </c>
       <c r="J141" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K141" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L141" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M141" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N141">
         <v>120.6852953767123</v>
@@ -8843,18 +8842,18 @@
         <v>37.02241867608921</v>
       </c>
       <c r="P141" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>311</v>
+      </c>
+      <c r="B142" t="s">
         <v>312</v>
       </c>
-      <c r="B142" t="s">
-        <v>313</v>
-      </c>
       <c r="C142" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D142">
         <v>3.875</v>
@@ -8875,16 +8874,16 @@
         <v>0.97886939858490496</v>
       </c>
       <c r="J142" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K142" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L142" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M142" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N142">
         <v>136.98480984669811</v>
@@ -8893,18 +8892,18 @@
         <v>32.84003333175658</v>
       </c>
       <c r="P142" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>313</v>
+      </c>
+      <c r="B143" t="s">
         <v>314</v>
       </c>
-      <c r="B143" t="s">
-        <v>315</v>
-      </c>
       <c r="C143" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -8925,16 +8924,16 @@
         <v>0.94799868766404205</v>
       </c>
       <c r="J143" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K143" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M143" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N143">
         <v>135.70696768372699</v>
@@ -8943,18 +8942,18 @@
         <v>55.689789413572868</v>
       </c>
       <c r="P143" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>315</v>
+      </c>
+      <c r="B144" t="s">
         <v>316</v>
       </c>
-      <c r="B144" t="s">
-        <v>317</v>
-      </c>
       <c r="C144" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D144">
         <v>3.625</v>
@@ -8975,16 +8974,16 @@
         <v>0.81272135416666602</v>
       </c>
       <c r="J144" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K144" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L144" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M144" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N144">
         <v>155.44620768229171</v>
@@ -8993,18 +8992,18 @@
         <v>52.021344962188557</v>
       </c>
       <c r="P144" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B145" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C145" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D145">
         <v>5.25</v>
@@ -9025,16 +9024,16 @@
         <v>0.96835846018735305</v>
       </c>
       <c r="J145" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L145" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N145">
         <v>145.84650907494151</v>
@@ -9043,18 +9042,18 @@
         <v>56.738612393145957</v>
       </c>
       <c r="P145" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>318</v>
+      </c>
+      <c r="B146" t="s">
         <v>319</v>
       </c>
-      <c r="B146" t="s">
-        <v>320</v>
-      </c>
       <c r="C146" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D146">
         <v>2.875</v>
@@ -9075,16 +9074,16 @@
         <v>0.92188231850117097</v>
       </c>
       <c r="J146" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K146" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L146" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M146" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N146">
         <v>109.4860545960187</v>
@@ -9093,18 +9092,18 @@
         <v>58.118842572454177</v>
       </c>
       <c r="P146" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>320</v>
+      </c>
+      <c r="B147" t="s">
         <v>321</v>
       </c>
-      <c r="B147" t="s">
-        <v>322</v>
-      </c>
       <c r="C147" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D147">
         <v>4.875</v>
@@ -9125,16 +9124,16 @@
         <v>0.95868340163934396</v>
       </c>
       <c r="J147" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K147" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L147" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M147" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N147">
         <v>111.9120974824356</v>
@@ -9143,18 +9142,18 @@
         <v>40.191954670121682</v>
       </c>
       <c r="P147" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>322</v>
+      </c>
+      <c r="B148" t="s">
         <v>323</v>
       </c>
-      <c r="B148" t="s">
-        <v>324</v>
-      </c>
       <c r="C148" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D148">
         <v>4.125</v>
@@ -9175,16 +9174,16 @@
         <v>0.97420594262295002</v>
       </c>
       <c r="J148" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K148" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L148" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M148" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N148">
         <v>119.7019650175644</v>
@@ -9193,18 +9192,18 @@
         <v>55.249196568522017</v>
       </c>
       <c r="P148" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>324</v>
+      </c>
+      <c r="B149" t="s">
         <v>325</v>
       </c>
-      <c r="B149" t="s">
-        <v>326</v>
-      </c>
       <c r="C149" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D149">
         <v>5.75</v>
@@ -9225,16 +9224,16 @@
         <v>0.98415235368956699</v>
       </c>
       <c r="J149" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K149" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L149" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M149" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N149">
         <v>117.9765386450382</v>
@@ -9243,18 +9242,18 @@
         <v>43.067036670618599</v>
       </c>
       <c r="P149" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>326</v>
+      </c>
+      <c r="B150" t="s">
         <v>327</v>
       </c>
-      <c r="B150" t="s">
-        <v>328</v>
-      </c>
       <c r="C150" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D150">
         <v>2.375</v>
@@ -9275,16 +9274,16 @@
         <v>0.96983313817330197</v>
       </c>
       <c r="J150" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K150" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L150" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M150" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N150">
         <v>178.83320403981261</v>
@@ -9293,18 +9292,18 @@
         <v>59.920132021905737</v>
       </c>
       <c r="P150" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B151" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C151" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D151">
         <v>2.75</v>
@@ -9325,16 +9324,16 @@
         <v>0.96344263497652505</v>
       </c>
       <c r="J151" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K151" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L151" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M151" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N151">
         <v>141.88753667840379</v>
@@ -9343,18 +9342,18 @@
         <v>57.883771224961762</v>
       </c>
       <c r="P151" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>329</v>
+      </c>
+      <c r="B152" t="s">
         <v>330</v>
       </c>
-      <c r="B152" t="s">
-        <v>331</v>
-      </c>
       <c r="C152" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D152">
         <v>6.875</v>
@@ -9375,16 +9374,16 @@
         <v>0.78695843091334805</v>
       </c>
       <c r="J152" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K152" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M152" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N152">
         <v>115.6988583138173</v>
@@ -9393,18 +9392,18 @@
         <v>80.711954106842043</v>
       </c>
       <c r="P152" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>331</v>
+      </c>
+      <c r="B153" t="s">
         <v>332</v>
       </c>
-      <c r="B153" t="s">
-        <v>333</v>
-      </c>
       <c r="C153" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D153">
         <v>6.25</v>
@@ -9425,16 +9424,16 @@
         <v>0.89690801056337999</v>
       </c>
       <c r="J153" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K153" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L153" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M153" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N153">
         <v>119.2844116784038</v>
@@ -9443,18 +9442,18 @@
         <v>61.26571565914724</v>
       </c>
       <c r="P153" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>333</v>
+      </c>
+      <c r="B154" t="s">
         <v>334</v>
       </c>
-      <c r="B154" t="s">
-        <v>335</v>
-      </c>
       <c r="C154" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D154">
         <v>5.625</v>
@@ -9475,16 +9474,16 @@
         <v>0.95911885245901596</v>
       </c>
       <c r="J154" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K154" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L154" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M154" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N154">
         <v>150.78614973653401</v>
@@ -9493,18 +9492,18 @@
         <v>65.489582314539788</v>
       </c>
       <c r="P154" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>335</v>
+      </c>
+      <c r="B155" t="s">
         <v>336</v>
       </c>
-      <c r="B155" t="s">
-        <v>337</v>
-      </c>
       <c r="C155" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D155">
         <v>6.875</v>
@@ -9525,16 +9524,16 @@
         <v>0.92642710772833703</v>
       </c>
       <c r="J155" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K155" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L155" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M155" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N155">
         <v>156.8594920960187</v>
@@ -9543,18 +9542,18 @@
         <v>57.594522228978768</v>
       </c>
       <c r="P155" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>337</v>
+      </c>
+      <c r="B156" t="s">
         <v>338</v>
       </c>
-      <c r="B156" t="s">
-        <v>339</v>
-      </c>
       <c r="C156" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D156">
         <v>5.875</v>
@@ -9575,16 +9574,16 @@
         <v>0.93807084309133404</v>
       </c>
       <c r="J156" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K156" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L156" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M156" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N156">
         <v>104.8809609192037</v>
@@ -9593,18 +9592,18 @@
         <v>48.014464296880277</v>
       </c>
       <c r="P156" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>339</v>
+      </c>
+      <c r="B157" t="s">
         <v>340</v>
       </c>
-      <c r="B157" t="s">
-        <v>341</v>
-      </c>
       <c r="C157" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D157">
         <v>6.875</v>
@@ -9625,16 +9624,16 @@
         <v>0.854292300936768</v>
       </c>
       <c r="J157" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K157" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M157" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N157">
         <v>135.5001280737705</v>
@@ -9643,18 +9642,18 @@
         <v>55.300763287920951</v>
       </c>
       <c r="P157" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>341</v>
+      </c>
+      <c r="B158" t="s">
         <v>342</v>
       </c>
-      <c r="B158" t="s">
-        <v>343</v>
-      </c>
       <c r="C158" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D158">
         <v>6.375</v>
@@ -9675,16 +9674,16 @@
         <v>0.85964843749999997</v>
       </c>
       <c r="J158" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K158" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L158" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M158" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N158">
         <v>103.3054817708333</v>
@@ -9693,18 +9692,18 @@
         <v>63.52104454534156</v>
       </c>
       <c r="P158" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>343</v>
+      </c>
+      <c r="B159" t="s">
         <v>344</v>
       </c>
-      <c r="B159" t="s">
-        <v>345</v>
-      </c>
       <c r="C159" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D159">
         <v>5.375</v>
@@ -9725,16 +9724,16 @@
         <v>0.97172461854460002</v>
       </c>
       <c r="J159" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K159" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L159" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M159" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N159">
         <v>132.34987162558679</v>
@@ -9743,18 +9742,18 @@
         <v>44.436518785543043</v>
       </c>
       <c r="P159" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="17" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>345</v>
+      </c>
+      <c r="B160" t="s">
         <v>346</v>
       </c>
-      <c r="B160" t="s">
-        <v>347</v>
-      </c>
       <c r="C160" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D160">
         <v>4.25</v>
@@ -9775,16 +9774,16 @@
         <v>0.94992297535211201</v>
       </c>
       <c r="J160" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K160" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L160" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M160" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N160">
         <v>127.773349471831</v>
@@ -9793,18 +9792,18 @@
         <v>49.575247230483413</v>
       </c>
       <c r="P160" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B161" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C161" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D161">
         <v>6.375</v>
@@ -9825,16 +9824,16 @@
         <v>0.85964843749999997</v>
       </c>
       <c r="J161" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K161" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M161" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N161">
         <v>103.3054817708333</v>
@@ -9843,18 +9842,18 @@
         <v>63.52104454534156</v>
       </c>
       <c r="P161" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>348</v>
+      </c>
+      <c r="B162" t="s">
         <v>349</v>
       </c>
-      <c r="B162" t="s">
-        <v>350</v>
-      </c>
       <c r="C162" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D162">
         <v>5.5</v>
@@ -9875,16 +9874,16 @@
         <v>0.89598958333333301</v>
       </c>
       <c r="J162" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K162" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L162" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M162" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N162">
         <v>134.27790364583331</v>
@@ -9893,18 +9892,18 @@
         <v>59.790405931215581</v>
       </c>
       <c r="P162" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>350</v>
+      </c>
+      <c r="B163" t="s">
         <v>351</v>
       </c>
-      <c r="B163" t="s">
-        <v>352</v>
-      </c>
       <c r="C163" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D163">
         <v>6.875</v>
@@ -9925,16 +9924,16 @@
         <v>0.97714661214953202</v>
       </c>
       <c r="J163" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K163" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L163" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M163" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N163">
         <v>123.4090318341122</v>
@@ -9943,18 +9942,18 @@
         <v>35.552710484970419</v>
       </c>
       <c r="P163" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>352</v>
+      </c>
+      <c r="B164" t="s">
         <v>353</v>
       </c>
-      <c r="B164" t="s">
-        <v>354</v>
-      </c>
       <c r="C164" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D164">
         <v>2.5</v>
@@ -9975,16 +9974,16 @@
         <v>0.979380122950819</v>
       </c>
       <c r="J164" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K164" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L164" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M164" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N164">
         <v>151.29707259953159</v>
@@ -9993,21 +9992,21 @@
         <v>59.561576706178457</v>
       </c>
       <c r="P164" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q164" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>354</v>
+      </c>
+      <c r="B165" t="s">
         <v>355</v>
       </c>
-      <c r="B165" t="s">
-        <v>356</v>
-      </c>
       <c r="C165" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D165">
         <v>6.875</v>
@@ -10028,16 +10027,16 @@
         <v>0.94529642489711896</v>
       </c>
       <c r="J165" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K165" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L165" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M165" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N165">
         <v>146.97581340020579</v>
@@ -10046,18 +10045,18 @@
         <v>52.720947681017797</v>
       </c>
       <c r="P165" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B166" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C166" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D166">
         <v>6.875</v>
@@ -10078,16 +10077,16 @@
         <v>0.97714661214953202</v>
       </c>
       <c r="J166" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K166" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L166" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M166" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N166">
         <v>123.4090318341122</v>
@@ -10096,18 +10095,18 @@
         <v>35.552710484970419</v>
       </c>
       <c r="P166" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>357</v>
+      </c>
+      <c r="B167" t="s">
         <v>358</v>
       </c>
-      <c r="B167" t="s">
-        <v>359</v>
-      </c>
       <c r="C167" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D167">
         <v>7</v>
@@ -10128,16 +10127,16 @@
         <v>0.95435084894613498</v>
       </c>
       <c r="J167" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K167" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L167" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M167" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N167">
         <v>85.719357435597189</v>
@@ -10146,18 +10145,18 @@
         <v>47.142914262771349</v>
       </c>
       <c r="P167" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="168" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>359</v>
+      </c>
+      <c r="B168" t="s">
         <v>360</v>
       </c>
-      <c r="B168" t="s">
-        <v>361</v>
-      </c>
       <c r="C168" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D168">
         <v>4.125</v>
@@ -10178,16 +10177,16 @@
         <v>0.94454039812646295</v>
       </c>
       <c r="J168" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K168" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L168" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M168" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N168">
         <v>81.184649443793916</v>
@@ -10196,18 +10195,18 @@
         <v>49.794334090375607</v>
       </c>
       <c r="P168" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>361</v>
+      </c>
+      <c r="B169" t="s">
         <v>362</v>
       </c>
-      <c r="B169" t="s">
-        <v>363</v>
-      </c>
       <c r="C169" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D169">
         <v>3.75</v>
@@ -10228,16 +10227,16 @@
         <v>0.95653283664459099</v>
       </c>
       <c r="J169" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K169" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L169" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M169" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N169">
         <v>143.4176048565121</v>
@@ -10246,18 +10245,18 @@
         <v>38.487024866232439</v>
       </c>
       <c r="P169" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="170" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>363</v>
+      </c>
+      <c r="B170" t="s">
         <v>364</v>
       </c>
-      <c r="B170" t="s">
-        <v>365</v>
-      </c>
       <c r="C170" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D170">
         <v>6.875</v>
@@ -10278,16 +10277,16 @@
         <v>0.93241364168618202</v>
       </c>
       <c r="J170" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K170" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L170" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N170">
         <v>89.010564256440276</v>
@@ -10296,18 +10295,18 @@
         <v>63.489155881845583</v>
       </c>
       <c r="P170" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>365</v>
+      </c>
+      <c r="B171" t="s">
         <v>366</v>
       </c>
-      <c r="B171" t="s">
-        <v>367</v>
-      </c>
       <c r="C171" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D171">
         <v>6.75</v>
@@ -10328,16 +10327,16 @@
         <v>0.94864196777343701</v>
       </c>
       <c r="J171" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K171" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L171" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M171" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N171">
         <v>134.0370788574219</v>
@@ -10346,18 +10345,18 @@
         <v>54.492573991491518</v>
       </c>
       <c r="P171" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>367</v>
+      </c>
+      <c r="B172" t="s">
         <v>368</v>
       </c>
-      <c r="B172" t="s">
-        <v>369</v>
-      </c>
       <c r="C172" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D172">
         <v>2.125</v>
@@ -10378,16 +10377,16 @@
         <v>0.97835553278688503</v>
       </c>
       <c r="J172" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K172" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L172" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M172" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N172">
         <v>85.714508928571433</v>
@@ -10396,18 +10395,18 @@
         <v>54.95235934936229</v>
       </c>
       <c r="P172" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B173" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C173" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D173">
         <v>4.75</v>
@@ -10428,16 +10427,16 @@
         <v>0.89897255777310903</v>
       </c>
       <c r="J173" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K173" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L173" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M173" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N173">
         <v>123.8428275997899</v>
@@ -10446,18 +10445,18 @@
         <v>45.83817715651184</v>
       </c>
       <c r="P173" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>370</v>
+      </c>
+      <c r="B174" t="s">
         <v>371</v>
       </c>
-      <c r="B174" t="s">
-        <v>372</v>
-      </c>
       <c r="C174" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D174">
         <v>6.125</v>
@@ -10478,16 +10477,16 @@
         <v>0.90442037470726</v>
       </c>
       <c r="J174" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K174" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L174" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M174" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N174">
         <v>133.0705430327869</v>
@@ -10496,18 +10495,18 @@
         <v>53.449072678265047</v>
       </c>
       <c r="P174" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>372</v>
+      </c>
+      <c r="B175" t="s">
         <v>373</v>
       </c>
-      <c r="B175" t="s">
-        <v>374</v>
-      </c>
       <c r="C175" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D175">
         <v>3.875</v>
@@ -10528,16 +10527,16 @@
         <v>0.97393229166666595</v>
       </c>
       <c r="J175" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K175" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L175" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M175" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N175">
         <v>119.72455078125</v>
@@ -10546,18 +10545,18 @@
         <v>57.759907780913132</v>
       </c>
       <c r="P175" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="176" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>374</v>
+      </c>
+      <c r="B176" t="s">
         <v>375</v>
       </c>
-      <c r="B176" t="s">
-        <v>376</v>
-      </c>
       <c r="C176" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D176">
         <v>6.875</v>
@@ -10578,16 +10577,16 @@
         <v>0.82047526041666596</v>
       </c>
       <c r="J176" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K176" t="s">
+        <v>113</v>
+      </c>
+      <c r="L176" t="s">
         <v>114</v>
       </c>
-      <c r="L176" t="s">
-        <v>115</v>
-      </c>
       <c r="M176" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N176">
         <v>102.25755208333329</v>
@@ -10596,18 +10595,18 @@
         <v>67.333939387109737</v>
       </c>
       <c r="P176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>376</v>
+      </c>
+      <c r="B177" t="s">
         <v>377</v>
       </c>
-      <c r="B177" t="s">
-        <v>378</v>
-      </c>
       <c r="C177" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D177">
         <v>5.125</v>
@@ -10628,16 +10627,16 @@
         <v>0.97130415690866501</v>
       </c>
       <c r="J177" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K177" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L177" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M177" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N177">
         <v>131.60351288056211</v>
@@ -10646,18 +10645,18 @@
         <v>37.530788873240787</v>
       </c>
       <c r="P177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>378</v>
+      </c>
+      <c r="B178" t="s">
         <v>379</v>
       </c>
-      <c r="B178" t="s">
-        <v>380</v>
-      </c>
       <c r="C178" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D178">
         <v>6.875</v>
@@ -10678,16 +10677,16 @@
         <v>0.85739441609977296</v>
       </c>
       <c r="J178" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K178" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L178" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M178" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N178">
         <v>76.427026643990928</v>
@@ -10696,18 +10695,18 @@
         <v>45.442094333490623</v>
       </c>
       <c r="P178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>380</v>
+      </c>
+      <c r="B179" t="s">
         <v>381</v>
       </c>
-      <c r="B179" t="s">
-        <v>382</v>
-      </c>
       <c r="C179" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D179">
         <v>6.875</v>
@@ -10728,16 +10727,16 @@
         <v>0.93454451650943304</v>
       </c>
       <c r="J179" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K179" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L179" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M179" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N179">
         <v>169.09309035966979</v>
@@ -10746,18 +10745,18 @@
         <v>61.016031277040859</v>
       </c>
       <c r="P179" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="180" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>382</v>
+      </c>
+      <c r="B180" t="s">
         <v>383</v>
       </c>
-      <c r="B180" t="s">
-        <v>384</v>
-      </c>
       <c r="C180" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D180">
         <v>3.375</v>
@@ -10778,16 +10777,16 @@
         <v>0.87890625</v>
       </c>
       <c r="J180" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K180" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L180" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M180" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N180">
         <v>117.1948514344262</v>
@@ -10796,18 +10795,18 @@
         <v>37.794236213100177</v>
       </c>
       <c r="P180" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>384</v>
+      </c>
+      <c r="B181" t="s">
         <v>385</v>
       </c>
-      <c r="B181" t="s">
-        <v>386</v>
-      </c>
       <c r="C181" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D181">
         <v>6.875</v>
@@ -10828,16 +10827,16 @@
         <v>0.92674546252927403</v>
       </c>
       <c r="J181" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K181" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L181" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M181" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N181">
         <v>150.22319964871201</v>
@@ -10846,18 +10845,18 @@
         <v>74.04256876017628</v>
       </c>
       <c r="P181" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="182" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>386</v>
+      </c>
+      <c r="B182" t="s">
         <v>387</v>
       </c>
-      <c r="B182" t="s">
-        <v>388</v>
-      </c>
       <c r="C182" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D182">
         <v>5.625</v>
@@ -10878,16 +10877,16 @@
         <v>0.93894174473067904</v>
       </c>
       <c r="J182" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K182" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L182" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M182" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N182">
         <v>140.37270199063229</v>
@@ -10896,18 +10895,18 @@
         <v>54.347617823783217</v>
       </c>
       <c r="P182" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="183" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>388</v>
+      </c>
+      <c r="B183" t="s">
         <v>389</v>
       </c>
-      <c r="B183" t="s">
-        <v>390</v>
-      </c>
       <c r="C183" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D183">
         <v>4.375</v>
@@ -10928,16 +10927,16 @@
         <v>0.951207552693208</v>
       </c>
       <c r="J183" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K183" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L183" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M183" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N183">
         <v>150.13644247658081</v>
@@ -10946,18 +10945,18 @@
         <v>46.040438254438193</v>
       </c>
       <c r="P183" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="184" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>390</v>
+      </c>
+      <c r="B184" t="s">
         <v>391</v>
       </c>
-      <c r="B184" t="s">
-        <v>392</v>
-      </c>
       <c r="C184" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D184">
         <v>6.875</v>
@@ -10978,16 +10977,16 @@
         <v>0.91886003521126702</v>
       </c>
       <c r="J184" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K184" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L184" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M184" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N184">
         <v>132.57794160798119</v>
@@ -10996,18 +10995,18 @@
         <v>61.326601979585071</v>
       </c>
       <c r="P184" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="185" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>392</v>
+      </c>
+      <c r="B185" t="s">
         <v>393</v>
       </c>
-      <c r="B185" t="s">
-        <v>394</v>
-      </c>
       <c r="C185" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D185">
         <v>6.875</v>
@@ -11028,16 +11027,16 @@
         <v>0.84460626463700195</v>
       </c>
       <c r="J185" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K185" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L185" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M185" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N185">
         <v>132.52738217213121</v>
@@ -11046,18 +11045,18 @@
         <v>42.860649856491023</v>
       </c>
       <c r="P185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="186" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>394</v>
+      </c>
+      <c r="B186" t="s">
         <v>395</v>
       </c>
-      <c r="B186" t="s">
-        <v>396</v>
-      </c>
       <c r="C186" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D186">
         <v>2.5</v>
@@ -11078,16 +11077,16 @@
         <v>0.94593457259953095</v>
       </c>
       <c r="J186" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K186" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L186" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M186" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N186">
         <v>134.34005415690871</v>
@@ -11096,18 +11095,18 @@
         <v>52.275067834986423</v>
       </c>
       <c r="P186" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="187" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>396</v>
+      </c>
+      <c r="B187" t="s">
         <v>397</v>
       </c>
-      <c r="B187" t="s">
-        <v>398</v>
-      </c>
       <c r="C187" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D187">
         <v>6.875</v>
@@ -11128,16 +11127,16 @@
         <v>0.94768183249370197</v>
       </c>
       <c r="J187" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K187" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L187" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M187" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N187">
         <v>136.8268340680101</v>
@@ -11146,21 +11145,21 @@
         <v>66.686677992814779</v>
       </c>
       <c r="P187" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q187" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="188" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>398</v>
+      </c>
+      <c r="B188" t="s">
         <v>399</v>
       </c>
-      <c r="B188" t="s">
-        <v>400</v>
-      </c>
       <c r="C188" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D188">
         <v>5.5</v>
@@ -11181,16 +11180,16 @@
         <v>0.938806352459016</v>
       </c>
       <c r="J188" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K188" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L188" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M188" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N188">
         <v>193.4334967798595</v>
@@ -11199,18 +11198,18 @@
         <v>73.434713750537057</v>
       </c>
       <c r="P188" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="189" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B189" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C189" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D189">
         <v>7.5</v>
@@ -11231,16 +11230,16 @@
         <v>0.93454451650943304</v>
       </c>
       <c r="J189" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K189" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L189" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M189" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N189">
         <v>169.09309035966979</v>
@@ -11249,21 +11248,21 @@
         <v>61.016031277040859</v>
       </c>
       <c r="P189" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q189" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="190" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>401</v>
+      </c>
+      <c r="B190" t="s">
         <v>402</v>
       </c>
-      <c r="B190" t="s">
-        <v>403</v>
-      </c>
       <c r="C190" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D190">
         <v>5.75</v>
@@ -11284,16 +11283,16 @@
         <v>0.96324282786885196</v>
       </c>
       <c r="J190" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K190" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L190" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M190" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N190">
         <v>115.5707735655738</v>
@@ -11302,18 +11301,18 @@
         <v>48.279298621538658</v>
       </c>
       <c r="P190" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>403</v>
+      </c>
+      <c r="B191" t="s">
         <v>404</v>
       </c>
-      <c r="B191" t="s">
-        <v>405</v>
-      </c>
       <c r="C191" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D191">
         <v>6.875</v>
@@ -11334,16 +11333,16 @@
         <v>0.95496560304449596</v>
       </c>
       <c r="J191" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K191" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L191" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M191" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N191">
         <v>148.13468237704919</v>
@@ -11352,18 +11351,18 @@
         <v>58.588662862995143</v>
       </c>
       <c r="P191" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="192" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>405</v>
+      </c>
+      <c r="B192" t="s">
         <v>406</v>
       </c>
-      <c r="B192" t="s">
-        <v>407</v>
-      </c>
       <c r="C192" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D192">
         <v>3</v>
@@ -11384,16 +11383,16 @@
         <v>0.95785641100702501</v>
       </c>
       <c r="J192" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K192" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L192" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M192" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N192">
         <v>91.615387148711946</v>
@@ -11402,18 +11401,18 @@
         <v>35.066632492467242</v>
       </c>
       <c r="P192" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="193" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>407</v>
+      </c>
+      <c r="B193" t="s">
         <v>408</v>
       </c>
-      <c r="B193" t="s">
-        <v>409</v>
-      </c>
       <c r="C193" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D193">
         <v>5.5</v>
@@ -11434,16 +11433,16 @@
         <v>0.984375</v>
       </c>
       <c r="J193" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K193" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L193" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M193" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N193">
         <v>109.04907786885251</v>
@@ -11452,18 +11451,18 @@
         <v>59.62714093712291</v>
       </c>
       <c r="P193" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="194" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>409</v>
+      </c>
+      <c r="B194" t="s">
         <v>410</v>
       </c>
-      <c r="B194" t="s">
-        <v>411</v>
-      </c>
       <c r="C194" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D194">
         <v>2.5</v>
@@ -11484,16 +11483,16 @@
         <v>0.92557084309133397</v>
       </c>
       <c r="J194" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K194" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L194" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M194" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N194">
         <v>118.5108533372365</v>
@@ -11502,18 +11501,18 @@
         <v>46.157241475033551</v>
       </c>
       <c r="P194" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="195" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>411</v>
+      </c>
+      <c r="B195" t="s">
         <v>412</v>
       </c>
-      <c r="B195" t="s">
-        <v>413</v>
-      </c>
       <c r="C195" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D195">
         <v>6.875</v>
@@ -11534,16 +11533,16 @@
         <v>0.87919716042154505</v>
       </c>
       <c r="J195" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K195" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L195" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M195" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N195">
         <v>89.630763319672127</v>
@@ -11552,18 +11551,18 @@
         <v>51.662727936479143</v>
       </c>
       <c r="P195" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="196" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>413</v>
+      </c>
+      <c r="B196" t="s">
         <v>414</v>
       </c>
-      <c r="B196" t="s">
-        <v>415</v>
-      </c>
       <c r="C196" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D196">
         <v>6.125</v>
@@ -11584,16 +11583,16 @@
         <v>0.86289367675781203</v>
       </c>
       <c r="J196" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K196" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L196" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M196" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N196">
         <v>161.7372131347656</v>
@@ -11602,18 +11601,18 @@
         <v>39.689963042403512</v>
       </c>
       <c r="P196" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="197" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>415</v>
+      </c>
+      <c r="B197" t="s">
         <v>416</v>
       </c>
-      <c r="B197" t="s">
-        <v>417</v>
-      </c>
       <c r="C197" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D197">
         <v>4.75</v>
@@ -11634,16 +11633,16 @@
         <v>0.93740482233502498</v>
       </c>
       <c r="J197" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K197" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L197" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M197" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N197">
         <v>116.83142845812181</v>
@@ -11652,18 +11651,18 @@
         <v>44.124090522068542</v>
       </c>
       <c r="P197" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="198" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>424</v>
+      </c>
+      <c r="B198" t="s">
         <v>425</v>
       </c>
-      <c r="B198" t="s">
-        <v>426</v>
-      </c>
       <c r="C198" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D198">
         <v>5.875</v>
@@ -11684,16 +11683,16 @@
         <v>0.98581674473067904</v>
       </c>
       <c r="J198" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K198" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L198" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M198" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N198">
         <v>114.56817183840749</v>
@@ -11702,21 +11701,21 @@
         <v>46.571052789669771</v>
       </c>
       <c r="P198" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q198" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="199" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>426</v>
+      </c>
+      <c r="B199" t="s">
         <v>427</v>
       </c>
-      <c r="B199" t="s">
-        <v>428</v>
-      </c>
       <c r="C199" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D199">
         <v>3.25</v>
@@ -11737,16 +11736,16 @@
         <v>0.98493120608899298</v>
       </c>
       <c r="J199" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K199" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L199" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M199" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N199">
         <v>74.335739900468383</v>
@@ -11755,18 +11754,18 @@
         <v>47.28659545812048</v>
       </c>
       <c r="P199" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="200" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>428</v>
+      </c>
+      <c r="B200" t="s">
         <v>429</v>
       </c>
-      <c r="B200" t="s">
-        <v>430</v>
-      </c>
       <c r="C200" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D200">
         <v>2.375</v>
@@ -11787,16 +11786,16 @@
         <v>0.98954918032786798</v>
       </c>
       <c r="J200" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K200" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L200" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M200" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N200">
         <v>102.12775907494149</v>
@@ -11805,18 +11804,18 @@
         <v>38.768192245696078</v>
       </c>
       <c r="P200" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="201" spans="1:17" ht="17" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" ht="17" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>430</v>
+      </c>
+      <c r="B201" t="s">
         <v>431</v>
       </c>
-      <c r="B201" t="s">
-        <v>432</v>
-      </c>
       <c r="C201" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D201">
         <v>6.875</v>
@@ -11837,16 +11836,16 @@
         <v>0.89228264051522199</v>
       </c>
       <c r="J201" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K201" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L201" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M201" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N201">
         <v>154.74990120023421</v>
@@ -11855,17 +11854,11 @@
         <v>47.8973821724747</v>
       </c>
       <c r="P201" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q201" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="easy"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q201" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
